--- a/templates/设备导入模板.xlsx
+++ b/templates/设备导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>请按录入标准录入数据，请务必不要改动表头信息，也不要删除某一列，按模板规则填入数据 谢谢合作</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>一般设备</t>
+  </si>
+  <si>
+    <t>*此行为结束*(所有数据写在此行前面)</t>
   </si>
 </sst>
 </file>
@@ -265,11 +268,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,60 +282,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,17 +340,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,6 +392,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -391,32 +408,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,19 +447,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +567,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,139 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,16 +656,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -703,8 +713,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,8 +722,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,16 +739,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -751,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,137 +773,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,11 +937,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1256,13 +1264,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="5"/>
     <col min="6" max="6" width="12.8888888888889" style="5" customWidth="1"/>
@@ -1405,16 +1413,16 @@
       <c r="AB2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1503,16 +1511,16 @@
       <c r="AB3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1592,7 +1600,7 @@
       <c r="Y4" s="4">
         <v>19548475</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="11" t="s">
         <v>75</v>
       </c>
       <c r="AA4" s="4" t="s">
@@ -1612,6 +1620,11 @@
       </c>
       <c r="AF4" s="4" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1624,11 +1637,11 @@
       <formula1>23743</formula1>
       <formula2>401404</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
+      <formula1>"一般设备,专用设备,交通工具,信息化设备,其他,其他固定资产,办公设备,消防设施,家具"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE$1:AE$1048576">
       <formula1>"自筹,财政拨款,教育,捐赠,基建,协作经费,科研,贷款,多种资金来源,其它"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
-      <formula1>"一般设备,专用设备,交通工具,信息化设备,其他,其他固定资产,办公设备,消防设施,家具"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
